--- a/TunningControl.xlsx
+++ b/TunningControl.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17927"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Bai\ibm\IBM R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mackenzie\Desktop\IBM\BEST FIT\Test with Effort from Harvester and Sea Sampling and arbitrary change 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536"/>
   </bookViews>
   <sheets>
     <sheet name="InitialAbuScaler" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -205,6 +205,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -240,6 +257,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -418,16 +452,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,28 +469,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -469,16 +503,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29:E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,28 +520,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -523,12 +557,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,28 +570,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -570,12 +604,12 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -583,28 +617,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -617,12 +651,12 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,28 +664,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -663,13 +697,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -677,28 +711,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -711,16 +745,16 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="84.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="84.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -728,7 +762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -736,7 +770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -744,7 +778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
